--- a/target/test-classes/Data.xlsx
+++ b/target/test-classes/Data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kspraneeth\IdeaProjects\TestTrials\src\main\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kspraneeth\Desktop\Important\main code\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{666C0FC7-EDEA-4538-AF6B-099203095DEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44986368-213F-4E91-AE51-0F1D6AE453CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -139,7 +139,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -153,16 +153,31 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -170,16 +185,39 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -463,7 +501,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -477,19 +515,19 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="6" t="s">
         <v>25</v>
       </c>
     </row>
@@ -497,19 +535,19 @@
       <c r="A2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="4" t="s">
         <v>31</v>
       </c>
     </row>
@@ -517,19 +555,19 @@
       <c r="A3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="4" t="s">
         <v>32</v>
       </c>
     </row>
@@ -537,19 +575,19 @@
       <c r="A4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="4" t="s">
         <v>33</v>
       </c>
     </row>
@@ -557,19 +595,19 @@
       <c r="A5" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" s="4" t="s">
         <v>34</v>
       </c>
     </row>
@@ -577,19 +615,19 @@
       <c r="A6" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="F6" s="4" t="s">
         <v>35</v>
       </c>
     </row>
